--- a/2023_merged/detail_list_2023.xlsx
+++ b/2023_merged/detail_list_2023.xlsx
@@ -1071,7 +1071,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,6 +1084,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="新細明體"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1160,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1174,32 +1180,35 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1207,8 +1216,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,32 +1527,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="24.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="17" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="16" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
@@ -1666,7 +1675,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -1694,7 +1703,7 @@
       <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1727,254 +1736,254 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>27</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>32</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>40</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7">
+      <c r="G4" s="10"/>
+      <c r="H4" s="8">
         <v>23</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="7">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="8">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="8" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="9" t="s">
         <v>36</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10" t="s">
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="7">
-        <v>0</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10" t="s">
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="10" t="s">
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="7">
-        <v>0</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>12099</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>12099</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>12099</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>12099</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>10</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
       <c r="A9" s="4">
@@ -1998,7 +2007,7 @@
       <c r="G9" s="4">
         <v>18</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="14" t="s">
         <v>47</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2056,7 +2065,7 @@
       <c r="G10" s="4">
         <v>96</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -2116,7 +2125,7 @@
       <c r="G11" s="4">
         <v>889</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -2176,7 +2185,7 @@
       <c r="G12" s="4">
         <v>163</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2224,19 +2233,19 @@
       <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="4">
         <v>20</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="14" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -2332,7 +2341,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
       <c r="A15" s="4">
         <v>0</v>
       </c>
@@ -2392,7 +2401,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -2450,7 +2459,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21.75">
       <c r="A17" s="4">
         <v>0</v>
       </c>
@@ -2934,7 +2943,7 @@
       <c r="E25" s="4">
         <v>77</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="4">
@@ -3053,14 +3062,14 @@
       <c r="F27" s="4">
         <v>26</v>
       </c>
-      <c r="G27" s="13"/>
+      <c r="G27" s="5"/>
       <c r="H27" s="5">
         <v>100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -3286,7 +3295,7 @@
       <c r="G31" s="4">
         <v>341</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="14" t="s">
         <v>128</v>
       </c>
       <c r="I31" s="3" t="s">
@@ -3344,7 +3353,7 @@
       <c r="G32" s="4">
         <v>160</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -3402,7 +3411,7 @@
       <c r="G33" s="4">
         <v>21</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="14" t="s">
         <v>138</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -3462,7 +3471,7 @@
       <c r="G34" s="4">
         <v>151</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="14" t="s">
         <v>142</v>
       </c>
       <c r="I34" s="3" t="s">
@@ -3522,13 +3531,13 @@
       <c r="G35" s="4">
         <v>151</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="14" t="s">
         <v>146</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="3" t="s">
@@ -3580,7 +3589,7 @@
       <c r="G36" s="4">
         <v>82</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="14" t="s">
         <v>150</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -3644,7 +3653,7 @@
       <c r="I37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K37" s="3" t="s">
@@ -3814,7 +3823,7 @@
       <c r="G40" s="4">
         <v>11</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -3872,7 +3881,7 @@
       <c r="G41" s="4">
         <v>6</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -3930,7 +3939,7 @@
       <c r="G42" s="4">
         <v>6</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="14" t="s">
         <v>166</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -4282,7 +4291,7 @@
       <c r="G48" s="4">
         <v>13</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="14" t="s">
         <v>195</v>
       </c>
       <c r="I48" s="3" t="s">
@@ -4340,7 +4349,7 @@
       <c r="G49" s="4">
         <v>551</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="14" t="s">
         <v>195</v>
       </c>
       <c r="I49" s="3" t="s">
@@ -4398,7 +4407,7 @@
       <c r="G50" s="4">
         <v>181</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="14" t="s">
         <v>195</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -4574,7 +4583,7 @@
       <c r="G53" s="4">
         <v>100</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -4632,7 +4641,7 @@
       <c r="G54" s="4">
         <v>38</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I54" s="3" t="s">
@@ -4690,7 +4699,7 @@
       <c r="G55" s="4">
         <v>34</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I55" s="3" t="s">
@@ -4748,7 +4757,7 @@
       <c r="G56" s="4">
         <v>23</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="14" t="s">
         <v>210</v>
       </c>
       <c r="I56" s="3" t="s">
@@ -4812,7 +4821,7 @@
       <c r="I57" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K57" s="3" t="s">
@@ -4930,7 +4939,7 @@
       <c r="I59" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="7" t="s">
         <v>26</v>
       </c>
       <c r="K59" s="3" t="s">
@@ -5215,7 +5224,7 @@
       <c r="F64" s="4">
         <v>153</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="5"/>
       <c r="H64" s="5">
         <v>35</v>
       </c>
@@ -5331,7 +5340,7 @@
       <c r="F66" s="4">
         <v>36</v>
       </c>
-      <c r="G66" s="13"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="5">
         <v>63</v>
       </c>
@@ -5387,7 +5396,7 @@
       <c r="F67" s="4">
         <v>11</v>
       </c>
-      <c r="G67" s="13"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="5">
         <v>64</v>
       </c>
@@ -5443,7 +5452,7 @@
       <c r="F68" s="4">
         <v>919</v>
       </c>
-      <c r="G68" s="13"/>
+      <c r="G68" s="5"/>
       <c r="H68" s="5">
         <v>34</v>
       </c>
@@ -5848,13 +5857,13 @@
       <c r="C75" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G75" s="4">
@@ -6268,7 +6277,7 @@
       <c r="G82" s="4">
         <v>25</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="14" t="s">
         <v>306</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -6328,7 +6337,7 @@
       <c r="G83" s="4">
         <v>4</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="14" t="s">
         <v>306</v>
       </c>
       <c r="I83" s="3" t="s">
@@ -6386,7 +6395,7 @@
       <c r="G84" s="4">
         <v>6</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="14" t="s">
         <v>306</v>
       </c>
       <c r="I84" s="3" t="s">
@@ -6619,7 +6628,7 @@
       <c r="F88" s="4">
         <v>25</v>
       </c>
-      <c r="G88" s="13"/>
+      <c r="G88" s="5"/>
       <c r="H88" s="5">
         <v>56</v>
       </c>
@@ -6675,7 +6684,7 @@
       <c r="F89" s="4">
         <v>8</v>
       </c>
-      <c r="G89" s="13"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="5">
         <v>57</v>
       </c>
